--- a/applications/us_states/Boston_projections.xlsx
+++ b/applications/us_states/Boston_projections.xlsx
@@ -520,76 +520,76 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>93166</v>
+        <v>13586</v>
       </c>
       <c r="B4">
-        <v>343</v>
+        <v>287</v>
       </c>
       <c r="C4">
-        <v>134533</v>
+        <v>32864</v>
       </c>
       <c r="D4">
-        <v>8.805951254199924</v>
+        <v>1.284154887281512</v>
       </c>
       <c r="E4">
-        <v>0.03248892414215501</v>
+        <v>0.02719868299780719</v>
       </c>
       <c r="F4">
-        <v>12.71585353322541</v>
+        <v>3.106269947846201</v>
       </c>
       <c r="G4">
-        <v>379848</v>
+        <v>0.1087269498383365</v>
       </c>
       <c r="H4">
-        <v>510</v>
+        <v>0.001364182633497164</v>
       </c>
       <c r="I4">
-        <v>464357</v>
+        <v>0.22806041842707</v>
       </c>
       <c r="J4">
-        <v>0.3249388982707363</v>
+        <v>0.1821592276009622</v>
       </c>
       <c r="K4">
-        <v>0.1508490540908336</v>
+        <v>0.1424717200898968</v>
       </c>
       <c r="L4">
-        <v>0.3972170193300337</v>
+        <v>0.232649422210662</v>
       </c>
       <c r="M4">
-        <v>81988</v>
+        <v>18733</v>
       </c>
       <c r="N4">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O4">
-        <v>111929</v>
+        <v>88837</v>
       </c>
       <c r="P4">
-        <v>8.101597210968377</v>
+        <v>1.851181818886008</v>
       </c>
       <c r="Q4">
-        <v>0.002872292594466404</v>
+        <v>0.003751738474150197</v>
       </c>
       <c r="R4">
-        <v>11.06026627322135</v>
+        <v>8.778454680915889</v>
       </c>
       <c r="S4">
-        <v>485471</v>
+        <v>0.1613618932026877</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>623979</v>
+        <v>0.5734540432088538</v>
       </c>
       <c r="V4">
-        <v>0.456222977378857</v>
+        <v>0.229005729999557</v>
       </c>
       <c r="W4">
-        <v>0.1521277822650249</v>
+        <v>0.1426003407015698</v>
       </c>
       <c r="X4">
-        <v>0.5797721630228477</v>
+        <v>0.3574029741431814</v>
       </c>
     </row>
   </sheetData>
